--- a/Stocks/INDUSINDBK.xlsx
+++ b/Stocks/INDUSINDBK.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1448.3833333333332</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1647.9603870630094</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>UP</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1602.3859896617921</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>UP</v>
       </c>
       <c r="N67">
         <v>78.46841051258167</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>UP</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>6.5</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>19.950000000000045</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>0.32581453634085139</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1571.796422494386</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>34.925196956506397</v>
       </c>
       <c r="Y67">
         <v>27.451580713951664</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>UP</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1667</v>
+      </c>
+      <c r="D83">
+        <v>1670</v>
+      </c>
+      <c r="E83">
+        <v>1653.65</v>
+      </c>
+      <c r="F83">
+        <v>1663.9</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1662.5166666666667</v>
+      </c>
+      <c r="H83">
+        <v>1657.9122407590799</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1658.5343172224841</v>
+      </c>
+      <c r="K83">
+        <v>1630.2131852709808</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>67.844726917422037</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>10.25</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>16.349999999999909</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.62691131498471298</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1641.9666525381724</v>
+      </c>
+      <c r="W83">
+        <v>1621.5657015283932</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>20.400951009779192</v>
+      </c>
+      <c r="Y83">
+        <v>21.730624077796417</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1645</v>
+      </c>
+      <c r="D84">
+        <v>1659.3</v>
+      </c>
+      <c r="E84">
+        <v>1638.1</v>
+      </c>
+      <c r="F84">
+        <v>1641.4</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1646.2666666666664</v>
+      </c>
+      <c r="H84">
+        <v>1652.0894537128731</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1658.7044689508209</v>
+      </c>
+      <c r="K84">
+        <v>1631.9658107663183</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>47.048620192741602</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>3.3000000000001819</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>21.200000000000045</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.1556603773584988</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1641.8794752246074</v>
+      </c>
+      <c r="W84">
+        <v>1623.0349088225864</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>18.844566402020973</v>
+      </c>
+      <c r="Y84">
+        <v>21.153412542641327</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1651</v>
+      </c>
+      <c r="D85">
+        <v>1665.8</v>
+      </c>
+      <c r="E85">
+        <v>1647.05</v>
+      </c>
+      <c r="F85">
+        <v>1660.55</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1657.8</v>
+      </c>
+      <c r="H85">
+        <v>1654.9447268564365</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J85">
+        <v>1660.2812536284162</v>
+      </c>
+      <c r="K85">
+        <v>1635.3178528182475</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N85">
+        <v>60.070102097613443</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>13.5</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>18.75</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.72</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1644.7518636515908</v>
+      </c>
+      <c r="W85">
+        <v>1625.8138044653579</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>18.938059186232977</v>
+      </c>
+      <c r="Y85">
+        <v>20.710341871359656</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1662.5</v>
+      </c>
+      <c r="D86">
+        <v>1668.4</v>
+      </c>
+      <c r="E86">
+        <v>1648</v>
+      </c>
+      <c r="F86">
+        <v>1658.05</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1658.1499999999999</v>
+      </c>
+      <c r="H86">
+        <v>1656.5473634282182</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1662.0854194887681</v>
+      </c>
+      <c r="K86">
+        <v>1638.1361077475258</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>57.752519048661085</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>10.049999999999955</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>20.400000000000091</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.492647058823525</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1646.7977307821154</v>
+      </c>
+      <c r="W86">
+        <v>1628.2016708012573</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>18.596059980858172</v>
+      </c>
+      <c r="Y86">
+        <v>20.287485493259361</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1661</v>
+      </c>
+      <c r="D87">
+        <v>1695.8</v>
+      </c>
+      <c r="E87">
+        <v>1654</v>
+      </c>
+      <c r="F87">
+        <v>1689.05</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1679.6166666666668</v>
+      </c>
+      <c r="H87">
+        <v>1668.0820150474424</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1669.577548491264</v>
+      </c>
+      <c r="K87">
+        <v>1641.6614171369645</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N87">
+        <v>73.562446963331979</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>35.049999999999955</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>41.799999999999955</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.8385167464114831</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V87">
+        <v>1653.2980798925591</v>
+      </c>
+      <c r="W87">
+        <v>1632.7089544456085</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>20.589125446950675</v>
+      </c>
+      <c r="Y87">
+        <v>20.347813483997623</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1682.5</v>
+      </c>
+      <c r="D88">
+        <v>1689.55</v>
+      </c>
+      <c r="E88">
+        <v>1658.5</v>
+      </c>
+      <c r="F88">
+        <v>1662</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1670.0166666666667</v>
+      </c>
+      <c r="H88">
+        <v>1669.0493408570546</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1674.0158710487608</v>
+      </c>
+      <c r="K88">
+        <v>1645.4033244398613</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>52.239623969991669</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>31.049999999999955</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.11272141706924332</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1654.6368368321655</v>
+      </c>
+      <c r="W88">
+        <v>1634.8786615237116</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>19.758175308453929</v>
+      </c>
+      <c r="Y88">
+        <v>20.229885848888884</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1670.7</v>
+      </c>
+      <c r="D89">
+        <v>1688.6</v>
+      </c>
+      <c r="E89">
+        <v>1665</v>
+      </c>
+      <c r="F89">
+        <v>1682.05</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1678.55</v>
+      </c>
+      <c r="H89">
+        <v>1673.7996704285274</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1677.2567885934807</v>
+      </c>
+      <c r="K89">
+        <v>1649.7581412310033</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>62.350795160265463</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>17.049999999999955</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>23.599999999999909</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.72245762711864492</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1658.854246550294</v>
+      </c>
+      <c r="W89">
+        <v>1638.3728347441775</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>20.481411806116512</v>
+      </c>
+      <c r="Y89">
+        <v>20.280191040334408</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1676</v>
+      </c>
+      <c r="D90">
+        <v>1693.8</v>
+      </c>
+      <c r="E90">
+        <v>1673.15</v>
+      </c>
+      <c r="F90">
+        <v>1691.65</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1686.2</v>
+      </c>
+      <c r="H90">
+        <v>1679.9998352142638</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1680.9330577949295</v>
+      </c>
+      <c r="K90">
+        <v>1654.9563320685581</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>66.584742111470192</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>18.5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>20.649999999999864</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.89588377723971535</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>1663.8997470810179</v>
+      </c>
+      <c r="W90">
+        <v>1642.319291429794</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>21.580455651223929</v>
+      </c>
+      <c r="Y90">
+        <v>20.540243962512314</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1690</v>
+      </c>
+      <c r="D91">
+        <v>1715.15</v>
+      </c>
+      <c r="E91">
+        <v>1687.65</v>
+      </c>
+      <c r="F91">
+        <v>1704</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1702.2666666666667</v>
+      </c>
+      <c r="H91">
+        <v>1691.1332509404651</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1688.5368227293895</v>
+      </c>
+      <c r="K91">
+        <v>1662.2215916088785</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>71.702137501768163</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>16.349999999999909</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>27.5</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.59454545454545127</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>1670.0690167608614</v>
+      </c>
+      <c r="W91">
+        <v>1646.8882328053649</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>23.180783955496508</v>
+      </c>
+      <c r="Y91">
+        <v>21.068351961109151</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1712.9</v>
+      </c>
+      <c r="D92">
+        <v>1713</v>
+      </c>
+      <c r="E92">
+        <v>1688.1</v>
+      </c>
+      <c r="F92">
+        <v>1700</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1700.3666666666668</v>
+      </c>
+      <c r="H92">
+        <v>1695.749958803566</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1693.9730843450807</v>
+      </c>
+      <c r="K92">
+        <v>1667.9723490291276</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>67.51599620491794</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>11.900000000000091</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>24.900000000000091</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.47791164658634727</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1674.6737834130365</v>
+      </c>
+      <c r="W92">
+        <v>1650.8224377827453</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>23.851345630291235</v>
+      </c>
+      <c r="Y92">
+        <v>21.624950694945568</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1711</v>
+      </c>
+      <c r="D93">
+        <v>1804</v>
+      </c>
+      <c r="E93">
+        <v>1700.75</v>
+      </c>
+      <c r="F93">
+        <v>1790</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1764.9166666666667</v>
+      </c>
+      <c r="H93">
+        <v>1730.3333127351164</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1718.4235100461738</v>
+      </c>
+      <c r="K93">
+        <v>1675.2562714670992</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>87.70478807042538</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>89.25</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>103.25</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.86440677966101698</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>1692.4162782725693</v>
+      </c>
+      <c r="W93">
+        <v>1661.1318868358753</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>31.284391436694023</v>
+      </c>
+      <c r="Y93">
+        <v>23.55683884329526</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>1712.5</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>1740.2</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>1752.4</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>1764.5500000000002</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1803.75</v>
+      </c>
+      <c r="D94">
+        <v>1803.75</v>
+      </c>
+      <c r="E94">
+        <v>1737</v>
+      </c>
+      <c r="F94">
+        <v>1740</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1760.25</v>
+      </c>
+      <c r="H94">
+        <v>1745.2916563675581</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>1737.3849522581352</v>
+      </c>
+      <c r="K94">
+        <v>1688.9771000299661</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>61.263607046735714</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>3</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>66.75</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>4.49438202247191E-2</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1699.7368508460202</v>
+      </c>
+      <c r="W94">
+        <v>1666.9739692924772</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>32.762881553542911</v>
+      </c>
+      <c r="Y94">
+        <v>25.398047385344789</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1745.75</v>
+      </c>
+      <c r="D95">
+        <v>1765</v>
+      </c>
+      <c r="E95">
+        <v>1736.4</v>
+      </c>
+      <c r="F95">
+        <v>1743.95</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1748.45</v>
+      </c>
+      <c r="H95">
+        <v>1746.8708281837789</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1743.5216295341052</v>
+      </c>
+      <c r="K95">
+        <v>1699.5155222455292</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>62.38349129292061</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>7.5499999999999545</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>28.599999999999909</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>0.26398601398601323</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1706.5388737927863</v>
+      </c>
+      <c r="W95">
+        <v>1672.6758974930344</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>33.862976299751836</v>
+      </c>
+      <c r="Y95">
+        <v>27.091033168226197</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1749</v>
+      </c>
+      <c r="D96">
+        <v>1749</v>
+      </c>
+      <c r="E96">
+        <v>1719.1</v>
+      </c>
+      <c r="F96">
+        <v>1723.9</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1730.6666666666667</v>
+      </c>
+      <c r="H96">
+        <v>1738.768747425223</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1744.7390451931929</v>
+      </c>
+      <c r="K96">
+        <v>1703.8676284131893</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>52.713932317504778</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>4.8000000000001819</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>29.900000000000091</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.16053511705686177</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1709.2098162862037</v>
+      </c>
+      <c r="W96">
+        <v>1676.4702754565133</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>32.739540829690441</v>
+      </c>
+      <c r="Y96">
+        <v>28.220734700519046</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1725</v>
+      </c>
+      <c r="D97">
+        <v>1727.8</v>
+      </c>
+      <c r="E97">
+        <v>1691.15</v>
+      </c>
+      <c r="F97">
+        <v>1701</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1706.6499999999999</v>
+      </c>
+      <c r="H97">
+        <v>1722.7093737126115</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1740.9748129280388</v>
+      </c>
+      <c r="K97">
+        <v>1701.0414887658139</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N97">
+        <v>43.162388398151144</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>9.8499999999999091</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>36.649999999999864</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.26875852660299987</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1707.9467676267877</v>
+      </c>
+      <c r="W97">
+        <v>1678.2872920893642</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>29.659475537423532</v>
+      </c>
+      <c r="Y97">
+        <v>28.508482867899943</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1706.1</v>
+      </c>
+      <c r="D98">
+        <v>1752.9</v>
+      </c>
+      <c r="E98">
+        <v>1706.1</v>
+      </c>
+      <c r="F98">
+        <v>1743</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1734</v>
+      </c>
+      <c r="H98">
+        <v>1728.3546868563058</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1743.6248544995858</v>
+      </c>
+      <c r="K98">
+        <v>1702.1656023734108</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>59.843577302281048</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>36.900000000000091</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>46.800000000000182</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.78846153846153733</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1713.339572607282</v>
+      </c>
+      <c r="W98">
+        <v>1683.0808260086706</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>30.258746598611424</v>
+      </c>
+      <c r="Y98">
+        <v>28.858535614042239</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1749.7</v>
+      </c>
+      <c r="D99">
+        <v>1758</v>
+      </c>
+      <c r="E99">
+        <v>1741.2</v>
+      </c>
+      <c r="F99">
+        <v>1745</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1748.0666666666666</v>
+      </c>
+      <c r="H99">
+        <v>1738.2106767614862</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1746.8193312774556</v>
+      </c>
+      <c r="K99">
+        <v>1710.8399129570973</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N99">
+        <v>60.53304748943097</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>3.7999999999999545</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>16.799999999999955</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.22619047619047408</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1718.2104075907771</v>
+      </c>
+      <c r="W99">
+        <v>1687.6674314895097</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>30.542976101267413</v>
+      </c>
+      <c r="Y99">
+        <v>29.195423711487273</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1745</v>
+      </c>
+      <c r="D100">
+        <v>1756.5</v>
+      </c>
+      <c r="E100">
+        <v>1722.65</v>
+      </c>
+      <c r="F100">
+        <v>1726.15</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1735.1000000000001</v>
+      </c>
+      <c r="H100">
+        <v>1736.6553383807432</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1748.9705909935765</v>
+      </c>
+      <c r="K100">
+        <v>1713.464376744409</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>50.348565428919386</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>3.5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>33.849999999999909</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.10339734121122628</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1719.4318833460422</v>
+      </c>
+      <c r="W100">
+        <v>1690.5179921199165</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>28.91389122612577</v>
+      </c>
+      <c r="Y100">
+        <v>29.139117214414973</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1729</v>
+      </c>
+      <c r="D101">
+        <v>1735</v>
+      </c>
+      <c r="E101">
+        <v>1711.35</v>
+      </c>
+      <c r="F101">
+        <v>1729.5</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1725.2833333333335</v>
+      </c>
+      <c r="H101">
+        <v>1730.9693358570385</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1745.866015217226</v>
+      </c>
+      <c r="K101">
+        <v>1712.9945152456514</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>52.13746345678819</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>18.150000000000091</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>23.650000000000091</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.7674418604651172</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1720.980824369728</v>
+      </c>
+      <c r="W101">
+        <v>1693.4055482591818</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>27.575276110546156</v>
+      </c>
+      <c r="Y101">
+        <v>28.826348993641211</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1720</v>
+      </c>
+      <c r="D102">
+        <v>1721.15</v>
+      </c>
+      <c r="E102">
+        <v>1694</v>
+      </c>
+      <c r="F102">
+        <v>1704.05</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1706.3999999999999</v>
+      </c>
+      <c r="H102">
+        <v>1718.684667928519</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1740.3735673911758</v>
+      </c>
+      <c r="K102">
+        <v>1708.7735118577289</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>38.846449636119424</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>10.049999999999955</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>27.150000000000091</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.3701657458563507</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1718.3760821590006</v>
+      </c>
+      <c r="W102">
+        <v>1694.194026165909</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>24.182055993091581</v>
+      </c>
+      <c r="Y102">
+        <v>27.897490393531285</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1695.25</v>
+      </c>
+      <c r="D103">
+        <v>1713.7</v>
+      </c>
+      <c r="E103">
+        <v>1675.2</v>
+      </c>
+      <c r="F103">
+        <v>1699</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1695.9666666666665</v>
+      </c>
+      <c r="H103">
+        <v>1707.3256672975926</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1734.4461079709145</v>
+      </c>
+      <c r="K103">
+        <v>1701.3127314449002</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>36.536268637579205</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>23.799999999999955</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>38.5</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.61818181818181706</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1715.3951464422312</v>
+      </c>
+      <c r="W103">
+        <v>1694.5500242276935</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>20.845122214537696</v>
+      </c>
+      <c r="Y103">
+        <v>26.487016757732569</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1693.1</v>
+      </c>
+      <c r="D104">
+        <v>1706.5</v>
+      </c>
+      <c r="E104">
+        <v>1682.05</v>
+      </c>
+      <c r="F104">
+        <v>1689</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1692.5166666666667</v>
+      </c>
+      <c r="H104">
+        <v>1699.9211669821298</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1728.2358617551556</v>
+      </c>
+      <c r="K104">
+        <v>1697.0321244571446</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>31.848160103598094</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>6.9500000000000455</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>24.450000000000045</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.28425357873210766</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1711.3343546818878</v>
+      </c>
+      <c r="W104">
+        <v>1694.1389113219384</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>17.195443359949422</v>
+      </c>
+      <c r="Y104">
+        <v>24.628702078175941</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1699</v>
+      </c>
+      <c r="D105">
+        <v>1704.6</v>
+      </c>
+      <c r="E105">
+        <v>1662.55</v>
+      </c>
+      <c r="F105">
+        <v>1665.3</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1677.4833333333333</v>
+      </c>
+      <c r="H105">
+        <v>1688.7022501577317</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1722.9834480317877</v>
+      </c>
+      <c r="K105">
+        <v>1689.3694301333346</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>23.076207739215469</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>2.75</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>42.049999999999955</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>6.5398335315101142E-2</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V105">
+        <v>1704.2521462692896</v>
+      </c>
+      <c r="W105">
+        <v>1692.0026956684615</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>12.249450600828141</v>
+      </c>
+      <c r="Y105">
+        <v>22.152851782706382</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD105">
+        <f t="shared" si="35"/>
+        <v>1699.8000000000002</v>
+      </c>
+      <c r="AE105">
+        <f t="shared" si="36"/>
+        <v>1688.5500000000002</v>
+      </c>
+      <c r="AF105">
+        <f t="shared" si="37"/>
+        <v>1683.5500000000002</v>
+      </c>
+      <c r="AG105">
+        <f t="shared" si="38"/>
+        <v>1678.6000000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1662.9</v>
+      </c>
+      <c r="D106">
+        <v>1695</v>
+      </c>
+      <c r="E106">
+        <v>1641.2</v>
+      </c>
+      <c r="F106">
+        <v>1679.85</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1672.0166666666664</v>
+      </c>
+      <c r="H106">
+        <v>1680.359458412199</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1716.7649040247238</v>
+      </c>
+      <c r="K106">
+        <v>1678.6651123259269</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N106">
+        <v>36.498343608642998</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>38.649999999999864</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>53.799999999999955</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.71840148698884565</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1700.4979699201681</v>
+      </c>
+      <c r="W106">
+        <v>1691.1024959893161</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>9.3954739308519493</v>
+      </c>
+      <c r="Y106">
+        <v>19.601376212335495</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1681</v>
+      </c>
+      <c r="D107">
+        <v>1695.5</v>
+      </c>
+      <c r="E107">
+        <v>1669</v>
+      </c>
+      <c r="F107">
+        <v>1675.5</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1680</v>
+      </c>
+      <c r="H107">
+        <v>1680.1797292060996</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1712.0393697970073</v>
+      </c>
+      <c r="K107">
+        <v>1676.517309586832</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>34.264070898033772</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>6.5</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>26.5</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.24528301886792453</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>1696.6521283939883</v>
+      </c>
+      <c r="W107">
+        <v>1689.9467555456631</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>6.7053728483251689</v>
+      </c>
+      <c r="Y107">
+        <v>17.022175539533428</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
